--- a/training-data/result-sheet/395-dataset/raw_strata_fix_rate.xlsx
+++ b/training-data/result-sheet/395-dataset/raw_strata_fix_rate.xlsx
@@ -471,28 +471,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>1192</v>
+        <v>585</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>1177</v>
+        <v>584</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,28 +533,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -564,28 +564,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C5" t="n">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -595,25 +595,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>980</v>
+        <v>534</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -626,28 +626,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>960</v>
+        <v>523</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -688,28 +688,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C9" t="n">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="C10" t="n">
-        <v>1047</v>
+        <v>512</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="C11" t="n">
-        <v>1008</v>
+        <v>492</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -781,28 +781,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" t="n">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,22 +843,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C14" t="n">
-        <v>874</v>
+        <v>481</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -874,22 +874,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="C15" t="n">
-        <v>851</v>
+        <v>454</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C16" t="n">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -936,22 +936,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C17" t="n">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -967,25 +967,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>1190</v>
+        <v>586</v>
       </c>
       <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21</v>
+      </c>
+      <c r="G18" t="n">
         <v>15</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>38</v>
-      </c>
-      <c r="G18" t="n">
-        <v>37</v>
-      </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -998,28 +998,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>1190</v>
+        <v>581</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G19" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1029,22 +1029,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C21" t="n">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1091,25 +1091,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v>994</v>
+        <v>536</v>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -1122,25 +1122,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C23" t="n">
-        <v>964</v>
+        <v>524</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C24" t="n">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1184,28 +1184,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1215,28 +1215,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="C26" t="n">
-        <v>1052</v>
+        <v>521</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1246,22 +1246,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="C27" t="n">
-        <v>1005</v>
+        <v>494</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1277,25 +1277,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" t="n">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" t="n">
         <v>478</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>17</v>
+      </c>
+      <c r="G29" t="n">
         <v>32</v>
-      </c>
-      <c r="G29" t="n">
-        <v>38</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1339,22 +1339,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="C30" t="n">
-        <v>861</v>
+        <v>474</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1370,28 +1370,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="C31" t="n">
-        <v>865</v>
+        <v>468</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1401,25 +1401,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C32" t="n">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1432,28 +1432,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C33" t="n">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G33" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C34" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G34" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>458</v>
+        <v>580</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G35" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C36" t="n">
-        <v>220</v>
+        <v>557</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1556,28 +1556,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C37" t="n">
-        <v>211</v>
+        <v>531</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1587,22 +1587,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C38" t="n">
-        <v>332</v>
+        <v>531</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G38" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1618,28 +1618,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C39" t="n">
-        <v>327</v>
+        <v>526</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C40" t="n">
-        <v>183</v>
+        <v>514</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1680,28 +1680,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>173</v>
+        <v>489</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G41" t="n">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1711,25 +1711,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C42" t="n">
-        <v>370</v>
+        <v>512</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G42" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -1742,22 +1742,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C43" t="n">
-        <v>340</v>
+        <v>481</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1773,28 +1773,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C44" t="n">
-        <v>211</v>
+        <v>508</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G44" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1804,22 +1804,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C45" t="n">
-        <v>194</v>
+        <v>484</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G45" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C46" t="n">
-        <v>291</v>
+        <v>476</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G46" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1866,22 +1866,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C47" t="n">
-        <v>275</v>
+        <v>459</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G47" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -1897,25 +1897,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C48" t="n">
-        <v>176</v>
+        <v>449</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G48" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -1928,22 +1928,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C49" t="n">
-        <v>162</v>
+        <v>436</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G49" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -1959,22 +1959,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C50" t="n">
-        <v>457</v>
+        <v>591</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G50" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -1990,28 +1990,28 @@
         </is>
       </c>
       <c r="B51" t="n">
+        <v>21</v>
+      </c>
+      <c r="C51" t="n">
+        <v>585</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>16</v>
       </c>
-      <c r="C51" t="n">
-        <v>453</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4</v>
-      </c>
       <c r="G51" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C52" t="n">
-        <v>222</v>
+        <v>549</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C53" t="n">
-        <v>217</v>
+        <v>543</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>334</v>
+        <v>542</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G54" t="n">
         <v>64</v>
@@ -2114,25 +2114,25 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C55" t="n">
-        <v>328</v>
+        <v>520</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G55" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2145,22 +2145,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C56" t="n">
-        <v>181</v>
+        <v>509</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G56" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2176,28 +2176,28 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C57" t="n">
-        <v>165</v>
+        <v>484</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G57" t="n">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2207,28 +2207,28 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" t="n">
-        <v>375</v>
+        <v>522</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G58" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C59" t="n">
-        <v>352</v>
+        <v>487</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G59" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2269,25 +2269,25 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C60" t="n">
-        <v>205</v>
+        <v>503</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G60" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C61" t="n">
-        <v>196</v>
+        <v>482</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G61" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2331,25 +2331,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C62" t="n">
-        <v>291</v>
+        <v>464</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G62" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C63" t="n">
-        <v>275</v>
+        <v>449</v>
       </c>
       <c r="D63" t="n">
         <v>2</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G63" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2393,25 +2393,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C64" t="n">
-        <v>172</v>
+        <v>448</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G64" t="n">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C65" t="n">
-        <v>159</v>
+        <v>441</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
